--- a/BDNF/data/201022_BDNF_ELISA.xlsx
+++ b/BDNF/data/201022_BDNF_ELISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portland-my.sharepoint.com/personal/mwzaw2-c_my_cityu_edu_hk/Documents/CEVR/projects/biomarkers/elisa_bdnf_cortisol/BDNF/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1C469B7A-1978-E541-B61F-295D1FA94331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AACA54A-5258-E94D-8215-FCB946DD98C5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1C469B7A-1978-E541-B61F-295D1FA94331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F542619-B3AB-154A-BF0F-7E0E8FBB5D36}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="440" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absorbance 1_01" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.6141732283464564E-2"/>
-          <c:y val="0.13112149532710279"/>
+          <c:x val="3.6761887322224261E-2"/>
+          <c:y val="1.8971962616822442E-2"/>
           <c:w val="0.92781175608862843"/>
           <c:h val="0.81218608187995189"/>
         </c:manualLayout>
@@ -2704,8 +2704,8 @@
   <sheetPr codeName="Absorbance 1_01"/>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="O8" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
